--- a/Data/EC/NIT-9002728078.xlsx
+++ b/Data/EC/NIT-9002728078.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0540F3C-4381-40FA-B9C9-1BE7AA1A6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D631F445-4A04-4449-961D-CDF1DE041891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E8E6F6F6-AF64-410A-8944-75A037762B38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BCAA00D-963F-48BA-91DC-07267ADDFFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,76 +71,76 @@
     <t>BERONICA BALETA CUETO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A96EE9-713F-D98E-A6A3-09F5B5B44449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5358120C-973B-FDCC-2F7C-58CAF554DA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379DEDD3-5D51-425A-9EA5-CD7C83DCF86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC34930F-3F64-4259-9928-7DAD4A390663}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26718</v>
+        <v>27640</v>
       </c>
       <c r="G16" s="18">
         <v>691000</v>
@@ -1612,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="24">
-        <v>27640</v>
+        <v>26718</v>
       </c>
       <c r="G39" s="24">
         <v>691000</v>
